--- a/AzentioAutomationFramework_CSM_Ajith/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Ajith/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AllMasterInstructions" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
   <si>
     <t>Stage</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>CSMUser1</t>
-  </si>
-  <si>
-    <t>MODEL.B</t>
   </si>
   <si>
     <t>CSMParamUser1</t>
@@ -170,6 +167,102 @@
   </si>
   <si>
     <t>CHB_007_D11</t>
+  </si>
+  <si>
+    <t>CHB_006</t>
+  </si>
+  <si>
+    <t>CHB_006_D1</t>
+  </si>
+  <si>
+    <t>CHB_006_D2</t>
+  </si>
+  <si>
+    <t>CHB_006_D3</t>
+  </si>
+  <si>
+    <t>CHB_006_D4</t>
+  </si>
+  <si>
+    <t>CHB_006_D5</t>
+  </si>
+  <si>
+    <t>Product Type</t>
+  </si>
+  <si>
+    <t>Chequebook</t>
+  </si>
+  <si>
+    <t>CHB_005</t>
+  </si>
+  <si>
+    <t>CHB_005_D1</t>
+  </si>
+  <si>
+    <t>CHB_004</t>
+  </si>
+  <si>
+    <t>CHB_004_D1</t>
+  </si>
+  <si>
+    <t>CHB_001</t>
+  </si>
+  <si>
+    <t>CHB_001_D1</t>
+  </si>
+  <si>
+    <t>No of Cheque boooks</t>
+  </si>
+  <si>
+    <t>Cheque Code</t>
+  </si>
+  <si>
+    <t>Branch code</t>
+  </si>
+  <si>
+    <t>Currency code</t>
+  </si>
+  <si>
+    <t>GL code</t>
+  </si>
+  <si>
+    <t>CIF code</t>
+  </si>
+  <si>
+    <t>Serial No</t>
+  </si>
+  <si>
+    <t>Created Cheque Book Code</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>CHB_002</t>
+  </si>
+  <si>
+    <t>CHB_003</t>
+  </si>
+  <si>
+    <t>CHB_002_D1</t>
+  </si>
+  <si>
+    <t>CHB_003_D1</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Status Of ChequeBook</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>CHB_001_D2</t>
+  </si>
+  <si>
+    <t>CHB_002_D2</t>
   </si>
 </sst>
 </file>
@@ -179,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Rs.&quot;#,##0.00;[Red]\-&quot;Rs.&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -236,8 +329,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +386,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -351,8 +463,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -364,8 +489,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -381,19 +507,14 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -418,8 +539,29 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
+    <cellStyle name="Excel Built-in Normal" xfId="7"/>
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="6"/>
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="5"/>
     <cellStyle name="Heading" xfId="3"/>
@@ -428,7 +570,55 @@
     <cellStyle name="Result" xfId="1"/>
     <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -755,7 +945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -776,49 +966,49 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
       <c r="A2" s="7"/>
       <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
       <c r="A3" s="9"/>
       <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30">
       <c r="A5" s="11"/>
       <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -832,7 +1022,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E40" sqref="E40:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -867,10 +1057,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>123</v>
+        <v>321</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -889,7 +1079,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
@@ -920,10 +1112,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>321</v>
@@ -970,10 +1162,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>123</v>
@@ -987,321 +1179,861 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="36"/>
+    <col min="13" max="13" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:13" ht="15">
+      <c r="A1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="18" t="s">
+      <c r="D1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15">
+      <c r="A2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32">
+        <v>1</v>
+      </c>
+      <c r="G2" s="32">
+        <v>100</v>
+      </c>
+      <c r="H2" s="32">
+        <v>1</v>
+      </c>
+      <c r="I2" s="32">
+        <v>840</v>
+      </c>
+      <c r="J2" s="32">
+        <v>5386</v>
+      </c>
+      <c r="K2" s="32">
+        <v>100105</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="37"/>
+    </row>
+    <row r="3" spans="1:13" ht="15">
+      <c r="A3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" ht="15">
+      <c r="A4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="32">
+        <v>791</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="37"/>
+    </row>
+    <row r="5" spans="1:13" ht="15">
+      <c r="A5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="32">
+        <v>877</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="37"/>
+    </row>
+    <row r="6" spans="1:13" ht="15">
+      <c r="A6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="37"/>
+    </row>
+    <row r="7" spans="1:13" ht="15">
+      <c r="A7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="32">
+        <v>869</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="1:13" ht="15">
+      <c r="A8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="32">
+        <v>879</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" spans="1:13" ht="15">
+      <c r="A9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="32">
+        <v>876</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="37"/>
+    </row>
+    <row r="10" spans="1:13" ht="15">
+      <c r="A10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="32">
+        <v>876</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11" spans="1:13" ht="15">
+      <c r="A11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="32">
+        <v>876</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" spans="1:13" ht="15">
+      <c r="A12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="32">
+        <v>876</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="37"/>
+    </row>
+    <row r="13" spans="1:13" ht="15">
+      <c r="A13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="32">
+        <v>876</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="1:13" ht="15">
+      <c r="A14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C14" s="32">
+        <v>594</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="37"/>
+    </row>
+    <row r="15" spans="1:13" ht="15">
+      <c r="A15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="19">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="C15" s="32">
+        <v>762</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" spans="1:13" ht="15">
+      <c r="A16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="19">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="C16" s="32">
+        <v>651</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="37"/>
+    </row>
+    <row r="17" spans="1:13" ht="15">
+      <c r="A17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="19">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="C17" s="32">
+        <v>650</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="37"/>
+    </row>
+    <row r="18" spans="1:13" ht="15">
+      <c r="A18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="19">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="C18" s="32">
+        <v>648</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:13" ht="15">
+      <c r="A19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="19">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="C19" s="32">
+        <v>647</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="37"/>
+    </row>
+    <row r="20" spans="1:13" ht="15">
+      <c r="A20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="19">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="C20" s="32">
+        <v>644</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="37"/>
+    </row>
+    <row r="21" spans="1:13" ht="15">
+      <c r="A21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="19">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="C21" s="32">
+        <v>615</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="37"/>
+    </row>
+    <row r="22" spans="1:13" ht="15">
+      <c r="A22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="19">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15">
-      <c r="A10" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="C22" s="32">
+        <v>614</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="37"/>
+    </row>
+    <row r="23" spans="1:13" ht="15">
+      <c r="A23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="19">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="A11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="C23" s="32">
+        <v>611</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="37"/>
+    </row>
+    <row r="24" spans="1:13" ht="15">
+      <c r="A24" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="19">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15">
-      <c r="A12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="19">
+      <c r="C24" s="32">
         <v>610</v>
       </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="13.85546875" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.140625" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.42578125" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.28515625" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.85546875" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.85546875" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="40" style="22" collapsed="1"/>
+    <col min="1" max="1" width="9.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="13.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="26.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="40" style="19" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A4" s="24">
+        <v>3</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A6" s="24">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="24">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="24">
+        <v>7</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="21" t="s">
+      <c r="C8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="16"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="16"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="16"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="10"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="10"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="24"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="24"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="24"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="24"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="24"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D8">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
+  <conditionalFormatting sqref="D7:D13">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AzentioAutomationFramework_CSM_Ajith/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Ajith/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AllMasterInstructions" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
   <si>
     <t>Stage</t>
   </si>
@@ -263,6 +263,15 @@
   </si>
   <si>
     <t>CHB_002_D2</t>
+  </si>
+  <si>
+    <t>CHB_035</t>
+  </si>
+  <si>
+    <t>CHB_035_D1</t>
+  </si>
+  <si>
+    <t>CHB_035_D2</t>
   </si>
 </sst>
 </file>
@@ -491,7 +500,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -559,6 +568,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -570,7 +582,55 @@
     <cellStyle name="Result" xfId="1"/>
     <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -945,7 +1005,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1179,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="12.75"/>
@@ -1745,6 +1805,48 @@
       <c r="L24" s="35"/>
       <c r="M24" s="37"/>
     </row>
+    <row r="25" spans="1:13" ht="15">
+      <c r="A25" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="32">
+        <v>591</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="37"/>
+    </row>
+    <row r="26" spans="1:13" ht="15">
+      <c r="A26" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="32">
+        <v>35</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="37"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1756,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40" defaultRowHeight="15"/>
@@ -1929,47 +2031,63 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="24">
-        <v>7</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="24">
+        <v>6</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="24"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="24"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="A10" s="24">
+        <v>7</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="24"/>
@@ -1998,7 +2116,7 @@
     <row r="13" spans="1:10">
       <c r="A13" s="24"/>
       <c r="B13" s="41"/>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="22"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
@@ -2007,33 +2125,57 @@
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
     </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="24"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="24"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D7:D13">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="No">
+  <conditionalFormatting sqref="D7:D15">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D15">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/AzentioAutomationFramework_CSM_Ajith/TestData/CSMTestData.xlsx
+++ b/AzentioAutomationFramework_CSM_Ajith/TestData/CSMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AllMasterInstructions" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="107">
   <si>
     <t>Stage</t>
   </si>
@@ -272,6 +272,78 @@
   </si>
   <si>
     <t>CHB_035_D2</t>
+  </si>
+  <si>
+    <t>CHB_036</t>
+  </si>
+  <si>
+    <t>CHB_037</t>
+  </si>
+  <si>
+    <t>CHB_038</t>
+  </si>
+  <si>
+    <t>CHB_039</t>
+  </si>
+  <si>
+    <t>BM User</t>
+  </si>
+  <si>
+    <t>BM Password</t>
+  </si>
+  <si>
+    <t>CHB_036_D1</t>
+  </si>
+  <si>
+    <t>CHB_037_D1</t>
+  </si>
+  <si>
+    <t>CHB_038_D1</t>
+  </si>
+  <si>
+    <t>CHB_039_D1</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>CHB_102</t>
+  </si>
+  <si>
+    <t>CHB_102_D1</t>
+  </si>
+  <si>
+    <t>CHB_103</t>
+  </si>
+  <si>
+    <t>CHB_103_D1</t>
+  </si>
+  <si>
+    <t>CHB_103_D2</t>
+  </si>
+  <si>
+    <t>CHB_103_D3</t>
+  </si>
+  <si>
+    <t>CHB_103_D4</t>
+  </si>
+  <si>
+    <t>CHB_103_D5</t>
+  </si>
+  <si>
+    <t>CHB_103_D6</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>CHB_114</t>
+  </si>
+  <si>
+    <t>CHB_114_D1</t>
   </si>
 </sst>
 </file>
@@ -408,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -442,19 +514,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,7 +559,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -515,62 +574,43 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -582,103 +622,7 @@
     <cellStyle name="Result" xfId="1"/>
     <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1239,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="12.75"/>
@@ -1251,931 +1195,1451 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="36"/>
-    <col min="13" max="13" width="25.140625" customWidth="1"/>
+    <col min="12" max="15" width="18.42578125" style="25"/>
+    <col min="16" max="16" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:16" ht="15">
+      <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:16" ht="15">
+      <c r="A2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21">
         <v>1</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="21">
         <v>100</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="21">
         <v>1</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="21">
         <v>840</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="21">
         <v>5386</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="21">
         <v>100105</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="37"/>
-    </row>
-    <row r="3" spans="1:13" ht="15">
-      <c r="A3" s="16" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" ht="15">
+      <c r="A3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="37"/>
-    </row>
-    <row r="4" spans="1:13" ht="15">
-      <c r="A4" s="16" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="26"/>
+    </row>
+    <row r="4" spans="1:16" ht="15">
+      <c r="A4" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="21">
         <v>791</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="37"/>
-    </row>
-    <row r="5" spans="1:13" ht="15">
-      <c r="A5" s="16" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="26"/>
+    </row>
+    <row r="5" spans="1:16" ht="15">
+      <c r="A5" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="21">
         <v>877</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="37"/>
-    </row>
-    <row r="6" spans="1:13" ht="15">
-      <c r="A6" s="16" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="26"/>
+    </row>
+    <row r="6" spans="1:16" ht="15">
+      <c r="A6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="37"/>
-    </row>
-    <row r="7" spans="1:13" ht="15">
-      <c r="A7" s="16" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="26"/>
+    </row>
+    <row r="7" spans="1:16" ht="15">
+      <c r="A7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="21">
         <v>869</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:13" ht="15">
-      <c r="A8" s="16" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="26"/>
+    </row>
+    <row r="8" spans="1:16" ht="15">
+      <c r="A8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="21">
         <v>879</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="37"/>
-    </row>
-    <row r="9" spans="1:13" ht="15">
-      <c r="A9" s="16" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="26"/>
+    </row>
+    <row r="9" spans="1:16" ht="15">
+      <c r="A9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="21">
         <v>876</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="37"/>
-    </row>
-    <row r="10" spans="1:13" ht="15">
-      <c r="A10" s="16" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="26"/>
+    </row>
+    <row r="10" spans="1:16" ht="15">
+      <c r="A10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="21">
         <v>876</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:13" ht="15">
-      <c r="A11" s="16" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="26"/>
+    </row>
+    <row r="11" spans="1:16" ht="15">
+      <c r="A11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="21">
         <v>876</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" spans="1:13" ht="15">
-      <c r="A12" s="16" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="26"/>
+    </row>
+    <row r="12" spans="1:16" ht="15">
+      <c r="A12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="21">
         <v>876</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:13" ht="15">
-      <c r="A13" s="16" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="26"/>
+    </row>
+    <row r="13" spans="1:16" ht="15">
+      <c r="A13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="21">
         <v>876</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:13" ht="15">
-      <c r="A14" s="16" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="26"/>
+    </row>
+    <row r="14" spans="1:16" ht="15">
+      <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="21">
         <v>594</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:13" ht="15">
-      <c r="A15" s="16" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="26"/>
+    </row>
+    <row r="15" spans="1:16" ht="15">
+      <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="21">
         <v>762</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="37"/>
-    </row>
-    <row r="16" spans="1:13" ht="15">
-      <c r="A16" s="16" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="26"/>
+    </row>
+    <row r="16" spans="1:16" ht="15">
+      <c r="A16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="21">
         <v>651</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="37"/>
-    </row>
-    <row r="17" spans="1:13" ht="15">
-      <c r="A17" s="16" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" spans="1:16" ht="15">
+      <c r="A17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="21">
         <v>650</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="37"/>
-    </row>
-    <row r="18" spans="1:13" ht="15">
-      <c r="A18" s="16" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="26"/>
+    </row>
+    <row r="18" spans="1:16" ht="15">
+      <c r="A18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="21">
         <v>648</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:13" ht="15">
-      <c r="A19" s="16" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="26"/>
+    </row>
+    <row r="19" spans="1:16" ht="15">
+      <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="21">
         <v>647</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="37"/>
-    </row>
-    <row r="20" spans="1:13" ht="15">
-      <c r="A20" s="16" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="26"/>
+    </row>
+    <row r="20" spans="1:16" ht="15">
+      <c r="A20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="21">
         <v>644</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="37"/>
-    </row>
-    <row r="21" spans="1:13" ht="15">
-      <c r="A21" s="16" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" spans="1:16" ht="15">
+      <c r="A21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="21">
         <v>615</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="1:13" ht="15">
-      <c r="A22" s="16" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="26"/>
+    </row>
+    <row r="22" spans="1:16" ht="15">
+      <c r="A22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="21">
         <v>614</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="37"/>
-    </row>
-    <row r="23" spans="1:13" ht="15">
-      <c r="A23" s="16" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="26"/>
+    </row>
+    <row r="23" spans="1:16" ht="15">
+      <c r="A23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="21">
         <v>611</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="37"/>
-    </row>
-    <row r="24" spans="1:13" ht="15">
-      <c r="A24" s="16" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="26"/>
+    </row>
+    <row r="24" spans="1:16" ht="15">
+      <c r="A24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="21">
         <v>610</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="37"/>
-    </row>
-    <row r="25" spans="1:13" ht="15">
-      <c r="A25" s="16" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="26"/>
+    </row>
+    <row r="25" spans="1:16" ht="15">
+      <c r="A25" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="21">
         <v>591</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="37"/>
-    </row>
-    <row r="26" spans="1:13" ht="15">
-      <c r="A26" s="16" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="26"/>
+    </row>
+    <row r="26" spans="1:16" ht="15">
+      <c r="A26" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="21">
         <v>35</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="37"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="26"/>
+    </row>
+    <row r="27" spans="1:16" ht="15">
+      <c r="A27" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="21">
+        <v>35</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27" s="24"/>
+      <c r="P27" s="26"/>
+    </row>
+    <row r="28" spans="1:16" ht="15">
+      <c r="A28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="21">
+        <v>35</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="O28" s="24"/>
+      <c r="P28" s="26"/>
+    </row>
+    <row r="29" spans="1:16" ht="15">
+      <c r="A29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="21">
+        <v>35</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="26"/>
+    </row>
+    <row r="30" spans="1:16" ht="15">
+      <c r="A30" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="21">
+        <v>35</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="26"/>
+    </row>
+    <row r="31" spans="1:16" ht="15">
+      <c r="A31" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="21">
+        <v>875</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P31" s="26"/>
+    </row>
+    <row r="32" spans="1:16" ht="15">
+      <c r="A32" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="21">
+        <v>991</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" s="26"/>
+    </row>
+    <row r="33" spans="1:16" ht="15">
+      <c r="A33" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="21">
+        <v>990</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P33" s="26"/>
+    </row>
+    <row r="34" spans="1:16" ht="15">
+      <c r="A34" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="21">
+        <v>990</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P34" s="26"/>
+    </row>
+    <row r="35" spans="1:16" ht="15">
+      <c r="A35" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="21">
+        <v>985</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P35" s="26"/>
+    </row>
+    <row r="36" spans="1:16" ht="15">
+      <c r="A36" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="21">
+        <v>967</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P36" s="26"/>
+    </row>
+    <row r="37" spans="1:16" ht="15">
+      <c r="A37" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="21">
+        <v>911</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P37" s="26"/>
+    </row>
+    <row r="38" spans="1:16" ht="15">
+      <c r="A38" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="21">
+        <v>898</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P38" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L2" numberStoredAsText="1"/>
+    <ignoredError sqref="L2 N27:N28" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="13.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="26.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="40" style="19" collapsed="1"/>
+    <col min="1" max="1" width="9.7109375" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="13.85546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="26.85546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.140625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.85546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.85546875" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="40" style="14" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A2" s="24">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A3" s="24">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="24">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A5" s="24">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A6" s="24">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="24">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="24">
-        <v>6</v>
-      </c>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="24">
-        <v>6</v>
-      </c>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="24">
-        <v>7</v>
-      </c>
-      <c r="B10" s="40" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="24"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="24"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="24"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="24"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="24"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="16"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D7:D15">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D5">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="No">
+  <conditionalFormatting sqref="D2:D22">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D22">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
